--- a/REGULAR/OJT/NEW DONE/SANTERA, MARICRIS.xlsx
+++ b/REGULAR/OJT/NEW DONE/SANTERA, MARICRIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DC9761-E83E-4E6B-A184-CB0AA567D7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7F53A-CBD0-400E-AFA0-D0076E9DC897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
   <si>
     <t>PERIOD</t>
   </si>
@@ -422,17 +422,21 @@
   </si>
   <si>
     <t>ANNIV 9/23/22</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -658,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,6 +842,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3205,7 +3212,7 @@
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3564" topLeftCell="A174" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
+      <selection pane="bottomLeft" activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8130,7 +8137,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8226,6 +8233,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8247,6 +8257,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="62">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>172.29599999999999</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/OJT/NEW DONE/SANTERA, MARICRIS.xlsx
+++ b/REGULAR/OJT/NEW DONE/SANTERA, MARICRIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7F53A-CBD0-400E-AFA0-D0076E9DC897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F9940-C52E-43F8-AB7F-BCEBD366DE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="648" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -807,6 +807,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,9 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2812,7 +2812,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3210,9 +3210,9 @@
   <dimension ref="A2:K230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3564" topLeftCell="A174" activePane="bottomLeft"/>
+      <pane ySplit="3564" topLeftCell="A183" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="F179" sqref="F179"/>
+      <selection pane="bottomLeft" activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3234,66 +3234,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3319,18 +3319,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3377,7 +3377,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.545999999999992</v>
+        <v>75.295999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3387,7 +3387,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.75</v>
+        <v>104.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7300,15 +7300,17 @@
       <c r="B187" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C187" s="13"/>
+      <c r="C187" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D187" s="39">
         <v>6</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="20"/>
-      <c r="G187" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G187" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H187" s="39"/>
       <c r="I187" s="9"/>
@@ -7322,13 +7324,15 @@
         <v>45017</v>
       </c>
       <c r="B188" s="20"/>
-      <c r="C188" s="13"/>
+      <c r="C188" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D188" s="39"/>
       <c r="E188" s="9"/>
       <c r="F188" s="20"/>
-      <c r="G188" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G188" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H188" s="39"/>
       <c r="I188" s="9"/>
@@ -7340,13 +7344,15 @@
         <v>45047</v>
       </c>
       <c r="B189" s="20"/>
-      <c r="C189" s="13"/>
+      <c r="C189" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D189" s="39"/>
       <c r="E189" s="9"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G189" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
@@ -8155,17 +8161,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -8249,17 +8255,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="62">
+      <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>172.29599999999999</v>
+        <v>179.79599999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/NEW DONE/SANTERA, MARICRIS.xlsx
+++ b/REGULAR/OJT/NEW DONE/SANTERA, MARICRIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F9940-C52E-43F8-AB7F-BCEBD366DE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7A7857-018B-476D-B301-FDD53363A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="648" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
   <si>
     <t>PERIOD</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>TOTAL LEAVE</t>
+  </si>
+  <si>
+    <t>7/8-10/2023</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2832,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K230" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K231" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3207,12 +3210,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K230"/>
+  <dimension ref="A2:K231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3564" topLeftCell="A183" activePane="bottomLeft"/>
+      <pane ySplit="3564" topLeftCell="A188" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="G187" sqref="G187"/>
+      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,7 +3380,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>75.295999999999992</v>
+        <v>72.295999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7363,9 +7366,13 @@
       <c r="A190" s="40">
         <v>45078</v>
       </c>
-      <c r="B190" s="20"/>
+      <c r="B190" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C190" s="13"/>
-      <c r="D190" s="39"/>
+      <c r="D190" s="39">
+        <v>3</v>
+      </c>
       <c r="E190" s="9"/>
       <c r="F190" s="20"/>
       <c r="G190" s="13" t="str">
@@ -7375,13 +7382,15 @@
       <c r="H190" s="39"/>
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="20"/>
+      <c r="K190" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B191" s="20"/>
+      <c r="A191" s="40"/>
+      <c r="B191" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C191" s="13"/>
       <c r="D191" s="39"/>
       <c r="E191" s="9"/>
@@ -7393,11 +7402,13 @@
       <c r="H191" s="39"/>
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
-      <c r="K191" s="20"/>
+      <c r="K191" s="48">
+        <v>45114</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7415,7 +7426,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7433,7 +7444,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7451,7 +7462,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7469,7 +7480,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7487,7 +7498,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7505,7 +7516,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7523,7 +7534,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7541,7 +7552,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7559,7 +7570,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7577,7 +7588,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7595,7 +7606,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7613,7 +7624,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7631,7 +7642,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -7649,7 +7660,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7667,7 +7678,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7685,7 +7696,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7703,7 +7714,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7721,7 +7732,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7739,7 +7750,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7757,7 +7768,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7775,7 +7786,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7793,7 +7804,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7811,7 +7822,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7829,7 +7840,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7847,7 +7858,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7865,7 +7876,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7883,7 +7894,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7901,7 +7912,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7919,7 +7930,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7937,7 +7948,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -7955,7 +7966,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -7973,7 +7984,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7991,7 +8002,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -8009,7 +8020,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -8027,7 +8038,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -8045,7 +8056,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -8063,7 +8074,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -8081,7 +8092,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -8096,6 +8107,24 @@
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B231" s="20"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="39"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H231" s="39"/>
+      <c r="I231" s="9"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8265,7 +8294,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>179.79599999999999</v>
+        <v>176.79599999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
